--- a/biology/Zoologie/Champsosauridae/Champsosauridae.xlsx
+++ b/biology/Zoologie/Champsosauridae/Champsosauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Champsosauridae forment une famille fossile de « reptiles » d'eau douce de l'ordre des Choristodera et du sous-ordre des Neochoristodera.
 Ils ont vécu durant le Crétacé et le Paléocène dans l'hémisphère nord en Amérique du Nord, en Europe et en Asie.
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières espèces ont été découvertes dans le Crétacé du Montana par Cope en 1876[1] puis par Louis Dollo en 1885 dans le Paléocène à Erquelinnes (Hainaut, Belgique)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières espèces ont été découvertes dans le Crétacé du Montana par Cope en 1876 puis par Louis Dollo en 1885 dans le Paléocène à Erquelinnes (Hainaut, Belgique).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des genres et des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 † Champsosaurus
@@ -594,9 +610,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Champsosauridae, au sein du sous-ordre des Neochoristodera, regroupent des choristodères d'assez grande taille qui ressemblent en apparence aux gavials actuels avec un long museau et un cou court, de 3 à 4 mètres de longueur, avec un crâne cordiforme (en forme de cœur) pouvant atteindre 60 centimètres de long[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Champsosauridae, au sein du sous-ordre des Neochoristodera, regroupent des choristodères d'assez grande taille qui ressemblent en apparence aux gavials actuels avec un long museau et un cou court, de 3 à 4 mètres de longueur, avec un crâne cordiforme (en forme de cœur) pouvant atteindre 60 centimètres de long.
 </t>
         </is>
       </c>
@@ -625,9 +643,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ci dessous, la synthèse du cladogramme de l'ordre Choristodera réalisée par Mikko Haaramo en 2015[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci dessous, la synthèse du cladogramme de l'ordre Choristodera réalisée par Mikko Haaramo en 2015 :
 </t>
         </is>
       </c>
